--- a/TEAM-Kenya_data_out/scenarios/Scen_CarSegmentsOMOKA.xlsx
+++ b/TEAM-Kenya_data_out/scenarios/Scen_CarSegmentsOMOKA.xlsx
@@ -913,31 +913,31 @@
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>6094.62451171875</v>
+        <v>6200</v>
       </c>
       <c r="AH2" t="n">
-        <v>5633.8720703125</v>
+        <v>6200</v>
       </c>
       <c r="AI2" t="n">
-        <v>7444.5244140625</v>
+        <v>6200</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6094.62451171875</v>
+        <v>9000</v>
       </c>
       <c r="AK2" t="n">
-        <v>7368.7783203125</v>
+        <v>9000</v>
       </c>
       <c r="AL2" t="n">
-        <v>10491.8369140625</v>
+        <v>9000</v>
       </c>
       <c r="AM2" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="AN2" t="n">
-        <v>6601.0703125</v>
+        <v>80000</v>
       </c>
       <c r="AO2" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="AP2" t="n">
         <v>100000</v>
@@ -1143,31 +1143,31 @@
         <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>4782.21826171875</v>
+        <v>5333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4520.9560546875</v>
+        <v>5333</v>
       </c>
       <c r="AI3" t="n">
-        <v>6331.6083984375</v>
+        <v>5333</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4237.5205078125</v>
+        <v>8333</v>
       </c>
       <c r="AK3" t="n">
-        <v>6056.37255859375</v>
+        <v>8333</v>
       </c>
       <c r="AL3" t="n">
-        <v>8411.72265625</v>
+        <v>8333</v>
       </c>
       <c r="AM3" t="n">
-        <v>50000</v>
+        <v>56000</v>
       </c>
       <c r="AN3" t="n">
-        <v>6056.37255859375</v>
+        <v>56000</v>
       </c>
       <c r="AO3" t="n">
-        <v>10491.8369140625</v>
+        <v>56000</v>
       </c>
       <c r="AP3" t="n">
         <v>100000</v>
@@ -1373,31 +1373,31 @@
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4014.51025390625</v>
+        <v>4466</v>
       </c>
       <c r="AH4" t="n">
-        <v>3824.70532226563</v>
+        <v>4466</v>
       </c>
       <c r="AI4" t="n">
-        <v>5635.35791015625</v>
+        <v>4466</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3815.0205078125</v>
+        <v>7666</v>
       </c>
       <c r="AK4" t="n">
-        <v>6056.37255859375</v>
+        <v>7666</v>
       </c>
       <c r="AL4" t="n">
-        <v>7867.02490234375</v>
+        <v>7666</v>
       </c>
       <c r="AM4" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="AN4" t="n">
-        <v>4743.966796875</v>
+        <v>32000</v>
       </c>
       <c r="AO4" t="n">
-        <v>9179.4306640625</v>
+        <v>32000</v>
       </c>
       <c r="AP4" t="n">
         <v>100000</v>
@@ -1603,31 +1603,31 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>3469.8125</v>
+        <v>3600</v>
       </c>
       <c r="AH5" t="n">
-        <v>3009.06030273438</v>
+        <v>3600</v>
       </c>
       <c r="AI5" t="n">
-        <v>4819.712890625</v>
+        <v>3600</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3815.0205078125</v>
+        <v>7000</v>
       </c>
       <c r="AK5" t="n">
-        <v>6056.37255859375</v>
+        <v>7000</v>
       </c>
       <c r="AL5" t="n">
-        <v>7867.02490234375</v>
+        <v>7000</v>
       </c>
       <c r="AM5" t="n">
-        <v>10484.400390625</v>
+        <v>8000</v>
       </c>
       <c r="AN5" t="n">
-        <v>4743.966796875</v>
+        <v>8000</v>
       </c>
       <c r="AO5" t="n">
-        <v>9179.4306640625</v>
+        <v>8000</v>
       </c>
       <c r="AP5" t="n">
         <v>100000</v>
@@ -1824,40 +1824,40 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>3469.8125</v>
+        <v>3471</v>
       </c>
       <c r="AH6" t="n">
-        <v>3009.06030273438</v>
+        <v>3471</v>
       </c>
       <c r="AI6" t="n">
-        <v>4819.712890625</v>
+        <v>3471</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3815.0205078125</v>
+        <v>6607</v>
       </c>
       <c r="AK6" t="n">
-        <v>5633.8720703125</v>
+        <v>6607</v>
       </c>
       <c r="AL6" t="n">
-        <v>7867.02490234375</v>
+        <v>6607</v>
       </c>
       <c r="AM6" t="n">
-        <v>10484.400390625</v>
+        <v>7842</v>
       </c>
       <c r="AN6" t="n">
-        <v>4520.9560546875</v>
+        <v>7842</v>
       </c>
       <c r="AO6" t="n">
-        <v>9179.4306640625</v>
+        <v>7842</v>
       </c>
       <c r="AP6" t="n">
         <v>100000</v>
@@ -2054,40 +2054,40 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>3177.943359375</v>
+        <v>3342</v>
       </c>
       <c r="AH7" t="n">
-        <v>2828.59985351563</v>
+        <v>3342</v>
       </c>
       <c r="AI7" t="n">
-        <v>4639.25244140625</v>
+        <v>3342</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3469.8125</v>
+        <v>6214</v>
       </c>
       <c r="AK7" t="n">
-        <v>4996.794921875</v>
+        <v>6214</v>
       </c>
       <c r="AL7" t="n">
-        <v>7099.31640625</v>
+        <v>6214</v>
       </c>
       <c r="AM7" t="n">
-        <v>10484.400390625</v>
+        <v>7684</v>
       </c>
       <c r="AN7" t="n">
-        <v>4321.46630859375</v>
+        <v>7684</v>
       </c>
       <c r="AO7" t="n">
-        <v>8411.72265625</v>
+        <v>7684</v>
       </c>
       <c r="AP7" t="n">
         <v>100000</v>
@@ -2284,40 +2284,40 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>2925.11474609375</v>
+        <v>3214</v>
       </c>
       <c r="AH8" t="n">
-        <v>2663.85229492188</v>
+        <v>3214</v>
       </c>
       <c r="AI8" t="n">
-        <v>4474.5048828125</v>
+        <v>3214</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3177.943359375</v>
+        <v>5821</v>
       </c>
       <c r="AK8" t="n">
-        <v>4520.9560546875</v>
+        <v>5821</v>
       </c>
       <c r="AL8" t="n">
-        <v>6554.619140625</v>
+        <v>5821</v>
       </c>
       <c r="AM8" t="n">
-        <v>10484.400390625</v>
+        <v>7526</v>
       </c>
       <c r="AN8" t="n">
-        <v>4141.005859375</v>
+        <v>7526</v>
       </c>
       <c r="AO8" t="n">
-        <v>7867.02490234375</v>
+        <v>7526</v>
       </c>
       <c r="AP8" t="n">
         <v>100000</v>
@@ -2514,40 +2514,40 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>2702.10424804688</v>
+        <v>3085</v>
       </c>
       <c r="AH9" t="n">
-        <v>2512.29931640625</v>
+        <v>3085</v>
       </c>
       <c r="AI9" t="n">
-        <v>4322.95166015625</v>
+        <v>3085</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2925.11474609375</v>
+        <v>5428</v>
       </c>
       <c r="AK9" t="n">
-        <v>4141.005859375</v>
+        <v>5428</v>
       </c>
       <c r="AL9" t="n">
-        <v>6132.11865234375</v>
+        <v>5428</v>
       </c>
       <c r="AM9" t="n">
-        <v>10484.400390625</v>
+        <v>7368</v>
       </c>
       <c r="AN9" t="n">
-        <v>3976.25830078125</v>
+        <v>7368</v>
       </c>
       <c r="AO9" t="n">
-        <v>7444.5244140625</v>
+        <v>7368</v>
       </c>
       <c r="AP9" t="n">
         <v>100000</v>
@@ -2744,40 +2744,40 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>2502.61450195313</v>
+        <v>2957</v>
       </c>
       <c r="AH10" t="n">
-        <v>2371.9833984375</v>
+        <v>2957</v>
       </c>
       <c r="AI10" t="n">
-        <v>4182.6357421875</v>
+        <v>2957</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2702.10424804688</v>
+        <v>5035</v>
       </c>
       <c r="AK10" t="n">
-        <v>3824.70532226563</v>
+        <v>5035</v>
       </c>
       <c r="AL10" t="n">
-        <v>5786.91064453125</v>
+        <v>5035</v>
       </c>
       <c r="AM10" t="n">
-        <v>10484.400390625</v>
+        <v>7210</v>
       </c>
       <c r="AN10" t="n">
-        <v>3824.70532226563</v>
+        <v>7210</v>
       </c>
       <c r="AO10" t="n">
-        <v>7099.31640625</v>
+        <v>7210</v>
       </c>
       <c r="AP10" t="n">
         <v>100000</v>
@@ -2974,40 +2974,40 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>2322.15405273438</v>
+        <v>2828</v>
       </c>
       <c r="AH11" t="n">
-        <v>2241.35205078125</v>
+        <v>2828</v>
       </c>
       <c r="AI11" t="n">
-        <v>4052.00439453125</v>
+        <v>2828</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2502.61450195313</v>
+        <v>4642</v>
       </c>
       <c r="AK11" t="n">
-        <v>3553.75805664063</v>
+        <v>4642</v>
       </c>
       <c r="AL11" t="n">
-        <v>5495.04150390625</v>
+        <v>4642</v>
       </c>
       <c r="AM11" t="n">
-        <v>10484.400390625</v>
+        <v>7052</v>
       </c>
       <c r="AN11" t="n">
-        <v>3684.38916015625</v>
+        <v>7052</v>
       </c>
       <c r="AO11" t="n">
-        <v>6807.447265625</v>
+        <v>7052</v>
       </c>
       <c r="AP11" t="n">
         <v>100000</v>
@@ -3204,40 +3204,40 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>2157.40649414063</v>
+        <v>2700</v>
       </c>
       <c r="AH12" t="n">
-        <v>2119.15478515625</v>
+        <v>2700</v>
       </c>
       <c r="AI12" t="n">
-        <v>3929.80712890625</v>
+        <v>2700</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2322.15405273438</v>
+        <v>4250</v>
       </c>
       <c r="AK12" t="n">
-        <v>3316.77392578125</v>
+        <v>4250</v>
       </c>
       <c r="AL12" t="n">
-        <v>5242.212890625</v>
+        <v>4250</v>
       </c>
       <c r="AM12" t="n">
-        <v>10484.400390625</v>
+        <v>6894</v>
       </c>
       <c r="AN12" t="n">
-        <v>3553.75805664063</v>
+        <v>6894</v>
       </c>
       <c r="AO12" t="n">
-        <v>6554.619140625</v>
+        <v>6894</v>
       </c>
       <c r="AP12" t="n">
         <v>100000</v>
@@ -3434,40 +3434,40 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>2005.85363769531</v>
+        <v>2571</v>
       </c>
       <c r="AH13" t="n">
-        <v>2004.36804199219</v>
+        <v>2571</v>
       </c>
       <c r="AI13" t="n">
-        <v>3815.0205078125</v>
+        <v>2571</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2157.40649414063</v>
+        <v>3857</v>
       </c>
       <c r="AK13" t="n">
-        <v>3106.17919921875</v>
+        <v>3857</v>
       </c>
       <c r="AL13" t="n">
-        <v>5019.20263671875</v>
+        <v>3857</v>
       </c>
       <c r="AM13" t="n">
-        <v>10484.400390625</v>
+        <v>6736</v>
       </c>
       <c r="AN13" t="n">
-        <v>3431.560546875</v>
+        <v>6736</v>
       </c>
       <c r="AO13" t="n">
-        <v>6331.6083984375</v>
+        <v>6736</v>
       </c>
       <c r="AP13" t="n">
         <v>100000</v>
@@ -3664,40 +3664,40 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>1865.53735351563</v>
+        <v>2442</v>
       </c>
       <c r="AH14" t="n">
-        <v>1896.14416503906</v>
+        <v>2442</v>
       </c>
       <c r="AI14" t="n">
-        <v>3706.79663085938</v>
+        <v>2442</v>
       </c>
       <c r="AJ14" t="n">
-        <v>2005.85363769531</v>
+        <v>3464</v>
       </c>
       <c r="AK14" t="n">
-        <v>2916.68090820313</v>
+        <v>3464</v>
       </c>
       <c r="AL14" t="n">
-        <v>4819.712890625</v>
+        <v>3464</v>
       </c>
       <c r="AM14" t="n">
-        <v>10484.400390625</v>
+        <v>6578</v>
       </c>
       <c r="AN14" t="n">
-        <v>3316.77392578125</v>
+        <v>6578</v>
       </c>
       <c r="AO14" t="n">
-        <v>6132.11865234375</v>
+        <v>6578</v>
       </c>
       <c r="AP14" t="n">
         <v>100000</v>
@@ -3894,40 +3894,40 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>1734.90625</v>
+        <v>2314</v>
       </c>
       <c r="AH15" t="n">
-        <v>1793.77319335938</v>
+        <v>2314</v>
       </c>
       <c r="AI15" t="n">
-        <v>3604.42553710938</v>
+        <v>2314</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1865.53735351563</v>
+        <v>3071</v>
       </c>
       <c r="AK15" t="n">
-        <v>2744.43481445313</v>
+        <v>3071</v>
       </c>
       <c r="AL15" t="n">
-        <v>4639.25244140625</v>
+        <v>3071</v>
       </c>
       <c r="AM15" t="n">
-        <v>10484.400390625</v>
+        <v>6421</v>
       </c>
       <c r="AN15" t="n">
-        <v>3208.55004882813</v>
+        <v>6421</v>
       </c>
       <c r="AO15" t="n">
-        <v>5951.658203125</v>
+        <v>6421</v>
       </c>
       <c r="AP15" t="n">
         <v>100000</v>
@@ -4124,40 +4124,40 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>1612.70886230469</v>
+        <v>2185</v>
       </c>
       <c r="AH16" t="n">
-        <v>1696.65441894531</v>
+        <v>2185</v>
       </c>
       <c r="AI16" t="n">
-        <v>3507.30688476563</v>
+        <v>2185</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1734.90625</v>
+        <v>2678</v>
       </c>
       <c r="AK16" t="n">
-        <v>2586.56005859375</v>
+        <v>2678</v>
       </c>
       <c r="AL16" t="n">
-        <v>4474.5048828125</v>
+        <v>2678</v>
       </c>
       <c r="AM16" t="n">
-        <v>10484.400390625</v>
+        <v>6263</v>
       </c>
       <c r="AN16" t="n">
-        <v>3106.17919921875</v>
+        <v>6263</v>
       </c>
       <c r="AO16" t="n">
-        <v>5786.91064453125</v>
+        <v>6263</v>
       </c>
       <c r="AP16" t="n">
         <v>100000</v>
@@ -4354,40 +4354,40 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>1497.92224121094</v>
+        <v>2057</v>
       </c>
       <c r="AH17" t="n">
-        <v>1604.27502441406</v>
+        <v>2057</v>
       </c>
       <c r="AI17" t="n">
-        <v>3414.92749023438</v>
+        <v>2057</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1612.70886230469</v>
+        <v>2285</v>
       </c>
       <c r="AK17" t="n">
-        <v>2440.841796875</v>
+        <v>2285</v>
       </c>
       <c r="AL17" t="n">
-        <v>4322.95166015625</v>
+        <v>2285</v>
       </c>
       <c r="AM17" t="n">
-        <v>10484.400390625</v>
+        <v>6105</v>
       </c>
       <c r="AN17" t="n">
-        <v>3009.06030273438</v>
+        <v>6105</v>
       </c>
       <c r="AO17" t="n">
-        <v>5635.35791015625</v>
+        <v>6105</v>
       </c>
       <c r="AP17" t="n">
         <v>100000</v>
@@ -4584,40 +4584,40 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>1389.6982421875</v>
+        <v>1928</v>
       </c>
       <c r="AH18" t="n">
-        <v>1516.19396972656</v>
+        <v>1928</v>
       </c>
       <c r="AI18" t="n">
-        <v>3326.84643554688</v>
+        <v>1928</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1497.92224121094</v>
+        <v>1892</v>
       </c>
       <c r="AK18" t="n">
-        <v>2305.54125976563</v>
+        <v>1892</v>
       </c>
       <c r="AL18" t="n">
-        <v>4182.6357421875</v>
+        <v>1892</v>
       </c>
       <c r="AM18" t="n">
-        <v>10484.400390625</v>
+        <v>5947</v>
       </c>
       <c r="AN18" t="n">
-        <v>2916.68090820313</v>
+        <v>5947</v>
       </c>
       <c r="AO18" t="n">
-        <v>5495.04150390625</v>
+        <v>5947</v>
       </c>
       <c r="AP18" t="n">
         <v>100000</v>
@@ -4814,40 +4814,40 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>1287.32739257813</v>
+        <v>1800</v>
       </c>
       <c r="AH19" t="n">
-        <v>1432.02893066406</v>
+        <v>1800</v>
       </c>
       <c r="AI19" t="n">
-        <v>3242.68139648438</v>
+        <v>1800</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1389.6982421875</v>
+        <v>1500</v>
       </c>
       <c r="AK19" t="n">
-        <v>2179.26782226563</v>
+        <v>1500</v>
       </c>
       <c r="AL19" t="n">
-        <v>4052.00439453125</v>
+        <v>1500</v>
       </c>
       <c r="AM19" t="n">
-        <v>10484.400390625</v>
+        <v>5789</v>
       </c>
       <c r="AN19" t="n">
-        <v>2828.59985351563</v>
+        <v>5789</v>
       </c>
       <c r="AO19" t="n">
-        <v>5364.41015625</v>
+        <v>5789</v>
       </c>
       <c r="AP19" t="n">
         <v>100000</v>
@@ -5047,37 +5047,37 @@
         <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>2000</v>
+        <v>2440</v>
       </c>
       <c r="AH20" t="n">
-        <v>2000</v>
+        <v>2440</v>
       </c>
       <c r="AI20" t="n">
-        <v>3500</v>
+        <v>2440</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1287.32739257813</v>
+        <v>1250</v>
       </c>
       <c r="AK20" t="n">
-        <v>2060.8916015625</v>
+        <v>1250</v>
       </c>
       <c r="AL20" t="n">
-        <v>3929.80712890625</v>
+        <v>1250</v>
       </c>
       <c r="AM20" t="n">
-        <v>10484.400390625</v>
+        <v>5631</v>
       </c>
       <c r="AN20" t="n">
-        <v>3000</v>
+        <v>5631</v>
       </c>
       <c r="AO20" t="n">
-        <v>4000</v>
+        <v>5631</v>
       </c>
       <c r="AP20" t="n">
         <v>100000</v>
@@ -5280,34 +5280,34 @@
         <v>2000</v>
       </c>
       <c r="AF21" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="AG21" t="n">
-        <v>3000</v>
+        <v>3080</v>
       </c>
       <c r="AH21" t="n">
-        <v>3000</v>
+        <v>3080</v>
       </c>
       <c r="AI21" t="n">
-        <v>4000</v>
+        <v>3080</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1190.20861816406</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>1949.48291015625</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>3815.0205078125</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>10484.400390625</v>
+        <v>5473</v>
       </c>
       <c r="AN21" t="n">
-        <v>4000</v>
+        <v>5473</v>
       </c>
       <c r="AO21" t="n">
-        <v>4000</v>
+        <v>5473</v>
       </c>
       <c r="AP21" t="n">
         <v>100000</v>
@@ -5513,31 +5513,31 @@
         <v>3000</v>
       </c>
       <c r="AG22" t="n">
-        <v>4000</v>
+        <v>3720</v>
       </c>
       <c r="AH22" t="n">
-        <v>4000</v>
+        <v>3720</v>
       </c>
       <c r="AI22" t="n">
-        <v>6000</v>
+        <v>3720</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1097.82922363281</v>
+        <v>750</v>
       </c>
       <c r="AK22" t="n">
-        <v>1844.26684570313</v>
+        <v>750</v>
       </c>
       <c r="AL22" t="n">
-        <v>3706.79663085938</v>
+        <v>750</v>
       </c>
       <c r="AM22" t="n">
-        <v>10484.400390625</v>
+        <v>5315</v>
       </c>
       <c r="AN22" t="n">
-        <v>4000</v>
+        <v>5315</v>
       </c>
       <c r="AO22" t="n">
-        <v>5000</v>
+        <v>5315</v>
       </c>
       <c r="AP22" t="n">
         <v>100000</v>
@@ -5743,31 +5743,31 @@
         <v>4000</v>
       </c>
       <c r="AG23" t="n">
-        <v>5000</v>
+        <v>4360</v>
       </c>
       <c r="AH23" t="n">
-        <v>5000</v>
+        <v>4360</v>
       </c>
       <c r="AI23" t="n">
-        <v>8000</v>
+        <v>4360</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1009.74810791016</v>
+        <v>500</v>
       </c>
       <c r="AK23" t="n">
-        <v>1744.59118652344</v>
+        <v>500</v>
       </c>
       <c r="AL23" t="n">
-        <v>3604.42553710938</v>
+        <v>500</v>
       </c>
       <c r="AM23" t="n">
-        <v>10484.400390625</v>
+        <v>5157</v>
       </c>
       <c r="AN23" t="n">
-        <v>5000</v>
+        <v>5157</v>
       </c>
       <c r="AO23" t="n">
-        <v>5000</v>
+        <v>5157</v>
       </c>
       <c r="AP23" t="n">
         <v>100000</v>
@@ -5979,25 +5979,25 @@
         <v>5000</v>
       </c>
       <c r="AI24" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>925.583129882813</v>
+        <v>250</v>
       </c>
       <c r="AK24" t="n">
-        <v>1649.9013671875</v>
+        <v>250</v>
       </c>
       <c r="AL24" t="n">
-        <v>3507.30688476563</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN24" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO24" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP24" t="n">
         <v>100000</v>
@@ -6185,31 +6185,31 @@
         <v>7</v>
       </c>
       <c r="AA25" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB25" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC25" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD25" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE25" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF25" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG25" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH25" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI25" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ25" t="n">
         <v>0</v>
@@ -6221,13 +6221,13 @@
         <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN25" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO25" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP25" t="n">
         <v>100000</v>
@@ -6415,31 +6415,31 @@
         <v>7</v>
       </c>
       <c r="AA26" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB26" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC26" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD26" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE26" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF26" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG26" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH26" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI26" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ26" t="n">
         <v>0</v>
@@ -6451,13 +6451,13 @@
         <v>0</v>
       </c>
       <c r="AM26" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN26" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO26" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP26" t="n">
         <v>100000</v>
@@ -6645,31 +6645,31 @@
         <v>7</v>
       </c>
       <c r="AA27" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB27" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC27" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD27" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE27" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF27" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG27" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH27" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI27" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ27" t="n">
         <v>0</v>
@@ -6681,13 +6681,13 @@
         <v>0</v>
       </c>
       <c r="AM27" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN27" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO27" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP27" t="n">
         <v>100000</v>
@@ -6875,31 +6875,31 @@
         <v>7</v>
       </c>
       <c r="AA28" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB28" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC28" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD28" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE28" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF28" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG28" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH28" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI28" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ28" t="n">
         <v>0</v>
@@ -6911,13 +6911,13 @@
         <v>0</v>
       </c>
       <c r="AM28" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN28" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO28" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP28" t="n">
         <v>100000</v>
@@ -7105,31 +7105,31 @@
         <v>7</v>
       </c>
       <c r="AA29" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB29" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC29" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD29" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE29" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF29" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG29" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH29" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI29" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ29" t="n">
         <v>0</v>
@@ -7141,13 +7141,13 @@
         <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN29" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO29" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP29" t="n">
         <v>100000</v>
@@ -7335,31 +7335,31 @@
         <v>7</v>
       </c>
       <c r="AA30" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB30" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC30" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD30" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE30" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF30" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG30" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH30" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI30" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ30" t="n">
         <v>0</v>
@@ -7371,13 +7371,13 @@
         <v>0</v>
       </c>
       <c r="AM30" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN30" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO30" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP30" t="n">
         <v>100000</v>
@@ -7565,31 +7565,31 @@
         <v>7</v>
       </c>
       <c r="AA31" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB31" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC31" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD31" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE31" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF31" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG31" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH31" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI31" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ31" t="n">
         <v>0</v>
@@ -7601,13 +7601,13 @@
         <v>0</v>
       </c>
       <c r="AM31" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN31" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO31" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP31" t="n">
         <v>100000</v>
@@ -7795,31 +7795,31 @@
         <v>7</v>
       </c>
       <c r="AA32" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB32" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC32" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD32" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE32" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF32" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG32" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH32" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI32" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ32" t="n">
         <v>0</v>
@@ -7831,13 +7831,13 @@
         <v>0</v>
       </c>
       <c r="AM32" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN32" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO32" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP32" t="n">
         <v>100000</v>
@@ -8025,31 +8025,31 @@
         <v>7</v>
       </c>
       <c r="AA33" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB33" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC33" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD33" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE33" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF33" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG33" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH33" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI33" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ33" t="n">
         <v>0</v>
@@ -8061,13 +8061,13 @@
         <v>0</v>
       </c>
       <c r="AM33" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN33" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO33" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP33" t="n">
         <v>100000</v>
@@ -8255,31 +8255,31 @@
         <v>7</v>
       </c>
       <c r="AA34" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB34" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC34" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD34" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE34" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF34" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG34" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH34" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI34" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ34" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="AM34" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN34" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO34" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP34" t="n">
         <v>100000</v>
@@ -8485,31 +8485,31 @@
         <v>7</v>
       </c>
       <c r="AA35" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB35" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC35" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD35" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE35" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF35" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG35" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH35" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI35" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ35" t="n">
         <v>0</v>
@@ -8521,13 +8521,13 @@
         <v>0</v>
       </c>
       <c r="AM35" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN35" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO35" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP35" t="n">
         <v>100000</v>
@@ -8715,31 +8715,31 @@
         <v>7</v>
       </c>
       <c r="AA36" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB36" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC36" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD36" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE36" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF36" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG36" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH36" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI36" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ36" t="n">
         <v>0</v>
@@ -8751,13 +8751,13 @@
         <v>0</v>
       </c>
       <c r="AM36" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN36" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO36" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP36" t="n">
         <v>100000</v>
@@ -8945,31 +8945,31 @@
         <v>7</v>
       </c>
       <c r="AA37" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB37" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC37" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD37" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE37" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF37" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG37" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH37" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI37" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ37" t="n">
         <v>0</v>
@@ -8981,13 +8981,13 @@
         <v>0</v>
       </c>
       <c r="AM37" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN37" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO37" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP37" t="n">
         <v>100000</v>
@@ -9175,31 +9175,31 @@
         <v>7</v>
       </c>
       <c r="AA38" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB38" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC38" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD38" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE38" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF38" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG38" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH38" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI38" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ38" t="n">
         <v>0</v>
@@ -9211,13 +9211,13 @@
         <v>0</v>
       </c>
       <c r="AM38" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN38" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO38" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP38" t="n">
         <v>100000</v>
@@ -9405,31 +9405,31 @@
         <v>7</v>
       </c>
       <c r="AA39" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB39" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC39" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD39" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE39" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF39" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG39" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH39" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI39" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ39" t="n">
         <v>0</v>
@@ -9441,13 +9441,13 @@
         <v>0</v>
       </c>
       <c r="AM39" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN39" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO39" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP39" t="n">
         <v>100000</v>
@@ -9635,31 +9635,31 @@
         <v>7</v>
       </c>
       <c r="AA40" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB40" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC40" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD40" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE40" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF40" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG40" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH40" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI40" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ40" t="n">
         <v>0</v>
@@ -9671,13 +9671,13 @@
         <v>0</v>
       </c>
       <c r="AM40" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN40" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO40" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP40" t="n">
         <v>100000</v>
@@ -9865,31 +9865,31 @@
         <v>7</v>
       </c>
       <c r="AA41" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB41" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC41" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD41" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE41" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF41" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG41" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH41" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI41" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ41" t="n">
         <v>0</v>
@@ -9901,13 +9901,13 @@
         <v>0</v>
       </c>
       <c r="AM41" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN41" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO41" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP41" t="n">
         <v>100000</v>
@@ -10095,31 +10095,31 @@
         <v>7</v>
       </c>
       <c r="AA42" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB42" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC42" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD42" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE42" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF42" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG42" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH42" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI42" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ42" t="n">
         <v>0</v>
@@ -10131,13 +10131,13 @@
         <v>0</v>
       </c>
       <c r="AM42" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN42" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO42" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP42" t="n">
         <v>100000</v>
@@ -10325,31 +10325,31 @@
         <v>7</v>
       </c>
       <c r="AA43" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB43" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC43" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD43" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE43" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF43" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG43" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH43" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI43" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ43" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="AM43" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN43" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO43" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP43" t="n">
         <v>100000</v>
@@ -10555,31 +10555,31 @@
         <v>7</v>
       </c>
       <c r="AA44" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB44" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC44" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD44" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE44" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF44" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG44" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH44" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI44" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ44" t="n">
         <v>0</v>
@@ -10591,13 +10591,13 @@
         <v>0</v>
       </c>
       <c r="AM44" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN44" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO44" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP44" t="n">
         <v>100000</v>
@@ -10785,31 +10785,31 @@
         <v>7</v>
       </c>
       <c r="AA45" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB45" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC45" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD45" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE45" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF45" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG45" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH45" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI45" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ45" t="n">
         <v>0</v>
@@ -10821,13 +10821,13 @@
         <v>0</v>
       </c>
       <c r="AM45" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN45" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO45" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP45" t="n">
         <v>100000</v>
@@ -11015,31 +11015,31 @@
         <v>7</v>
       </c>
       <c r="AA46" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB46" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC46" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD46" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE46" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF46" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG46" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH46" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI46" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ46" t="n">
         <v>0</v>
@@ -11051,13 +11051,13 @@
         <v>0</v>
       </c>
       <c r="AM46" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN46" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO46" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP46" t="n">
         <v>100000</v>
@@ -11245,31 +11245,31 @@
         <v>7</v>
       </c>
       <c r="AA47" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB47" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC47" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD47" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE47" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF47" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG47" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH47" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI47" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ47" t="n">
         <v>0</v>
@@ -11281,13 +11281,13 @@
         <v>0</v>
       </c>
       <c r="AM47" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN47" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO47" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP47" t="n">
         <v>100000</v>
@@ -11475,31 +11475,31 @@
         <v>7</v>
       </c>
       <c r="AA48" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB48" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC48" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD48" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE48" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF48" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG48" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH48" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI48" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ48" t="n">
         <v>0</v>
@@ -11511,13 +11511,13 @@
         <v>0</v>
       </c>
       <c r="AM48" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN48" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO48" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP48" t="n">
         <v>100000</v>
@@ -11705,31 +11705,31 @@
         <v>7</v>
       </c>
       <c r="AA49" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB49" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC49" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD49" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE49" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF49" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG49" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH49" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI49" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ49" t="n">
         <v>0</v>
@@ -11741,13 +11741,13 @@
         <v>0</v>
       </c>
       <c r="AM49" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN49" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO49" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP49" t="n">
         <v>100000</v>
@@ -11935,31 +11935,31 @@
         <v>7</v>
       </c>
       <c r="AA50" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB50" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC50" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD50" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE50" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF50" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG50" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH50" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI50" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ50" t="n">
         <v>0</v>
@@ -11971,13 +11971,13 @@
         <v>0</v>
       </c>
       <c r="AM50" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN50" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO50" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP50" t="n">
         <v>100000</v>
@@ -12165,31 +12165,31 @@
         <v>7</v>
       </c>
       <c r="AA51" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB51" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC51" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD51" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE51" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF51" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG51" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH51" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI51" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ51" t="n">
         <v>0</v>
@@ -12201,13 +12201,13 @@
         <v>0</v>
       </c>
       <c r="AM51" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN51" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO51" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP51" t="n">
         <v>100000</v>
@@ -12395,31 +12395,31 @@
         <v>7</v>
       </c>
       <c r="AA52" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB52" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC52" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD52" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE52" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF52" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG52" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH52" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI52" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ52" t="n">
         <v>0</v>
@@ -12431,13 +12431,13 @@
         <v>0</v>
       </c>
       <c r="AM52" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN52" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO52" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP52" t="n">
         <v>100000</v>
@@ -12625,31 +12625,31 @@
         <v>7</v>
       </c>
       <c r="AA53" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB53" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC53" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD53" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE53" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF53" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG53" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH53" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI53" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ53" t="n">
         <v>0</v>
@@ -12661,13 +12661,13 @@
         <v>0</v>
       </c>
       <c r="AM53" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN53" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO53" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP53" t="n">
         <v>100000</v>
@@ -12855,31 +12855,31 @@
         <v>7</v>
       </c>
       <c r="AA54" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB54" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC54" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD54" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE54" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF54" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG54" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH54" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI54" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ54" t="n">
         <v>0</v>
@@ -12891,13 +12891,13 @@
         <v>0</v>
       </c>
       <c r="AM54" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN54" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO54" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP54" t="n">
         <v>100000</v>
@@ -13085,31 +13085,31 @@
         <v>7</v>
       </c>
       <c r="AA55" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB55" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC55" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD55" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE55" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF55" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG55" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH55" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI55" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ55" t="n">
         <v>0</v>
@@ -13121,13 +13121,13 @@
         <v>0</v>
       </c>
       <c r="AM55" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN55" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO55" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP55" t="n">
         <v>100000</v>
@@ -13315,31 +13315,31 @@
         <v>7</v>
       </c>
       <c r="AA56" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB56" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC56" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD56" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE56" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF56" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG56" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH56" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI56" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ56" t="n">
         <v>0</v>
@@ -13351,13 +13351,13 @@
         <v>0</v>
       </c>
       <c r="AM56" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN56" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO56" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP56" t="n">
         <v>100000</v>
@@ -13545,31 +13545,31 @@
         <v>7</v>
       </c>
       <c r="AA57" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB57" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC57" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD57" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE57" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF57" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG57" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH57" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI57" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ57" t="n">
         <v>0</v>
@@ -13581,13 +13581,13 @@
         <v>0</v>
       </c>
       <c r="AM57" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN57" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO57" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP57" t="n">
         <v>100000</v>
@@ -13775,31 +13775,31 @@
         <v>7</v>
       </c>
       <c r="AA58" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB58" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC58" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD58" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE58" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF58" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG58" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH58" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI58" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ58" t="n">
         <v>0</v>
@@ -13811,13 +13811,13 @@
         <v>0</v>
       </c>
       <c r="AM58" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN58" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO58" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP58" t="n">
         <v>100000</v>
@@ -14005,31 +14005,31 @@
         <v>7</v>
       </c>
       <c r="AA59" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB59" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC59" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD59" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE59" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF59" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG59" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH59" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI59" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ59" t="n">
         <v>0</v>
@@ -14041,13 +14041,13 @@
         <v>0</v>
       </c>
       <c r="AM59" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN59" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO59" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP59" t="n">
         <v>100000</v>
@@ -14235,31 +14235,31 @@
         <v>7</v>
       </c>
       <c r="AA60" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB60" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC60" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD60" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE60" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF60" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG60" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH60" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI60" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ60" t="n">
         <v>0</v>
@@ -14271,13 +14271,13 @@
         <v>0</v>
       </c>
       <c r="AM60" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN60" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO60" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP60" t="n">
         <v>100000</v>
@@ -14465,31 +14465,31 @@
         <v>7</v>
       </c>
       <c r="AA61" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB61" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC61" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD61" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE61" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF61" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG61" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH61" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI61" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ61" t="n">
         <v>0</v>
@@ -14501,13 +14501,13 @@
         <v>0</v>
       </c>
       <c r="AM61" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN61" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO61" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP61" t="n">
         <v>100000</v>
@@ -14695,31 +14695,31 @@
         <v>7</v>
       </c>
       <c r="AA62" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB62" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC62" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD62" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE62" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF62" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG62" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH62" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI62" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ62" t="n">
         <v>0</v>
@@ -14731,13 +14731,13 @@
         <v>0</v>
       </c>
       <c r="AM62" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN62" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO62" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP62" t="n">
         <v>100000</v>
@@ -14925,31 +14925,31 @@
         <v>7</v>
       </c>
       <c r="AA63" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB63" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC63" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD63" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE63" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF63" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG63" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH63" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI63" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ63" t="n">
         <v>0</v>
@@ -14961,13 +14961,13 @@
         <v>0</v>
       </c>
       <c r="AM63" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN63" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO63" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP63" t="n">
         <v>100000</v>
@@ -15155,31 +15155,31 @@
         <v>7</v>
       </c>
       <c r="AA64" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB64" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC64" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD64" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE64" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF64" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG64" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH64" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI64" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ64" t="n">
         <v>0</v>
@@ -15191,13 +15191,13 @@
         <v>0</v>
       </c>
       <c r="AM64" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN64" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO64" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP64" t="n">
         <v>100000</v>
@@ -15385,31 +15385,31 @@
         <v>7</v>
       </c>
       <c r="AA65" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB65" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC65" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD65" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE65" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF65" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG65" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH65" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI65" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ65" t="n">
         <v>0</v>
@@ -15421,13 +15421,13 @@
         <v>0</v>
       </c>
       <c r="AM65" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN65" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO65" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP65" t="n">
         <v>100000</v>
@@ -15615,31 +15615,31 @@
         <v>7</v>
       </c>
       <c r="AA66" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB66" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC66" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD66" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE66" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF66" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG66" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH66" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI66" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ66" t="n">
         <v>0</v>
@@ -15651,13 +15651,13 @@
         <v>0</v>
       </c>
       <c r="AM66" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN66" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO66" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP66" t="n">
         <v>100000</v>
@@ -15845,31 +15845,31 @@
         <v>7</v>
       </c>
       <c r="AA67" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB67" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC67" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD67" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE67" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF67" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG67" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH67" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI67" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ67" t="n">
         <v>0</v>
@@ -15881,13 +15881,13 @@
         <v>0</v>
       </c>
       <c r="AM67" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN67" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO67" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP67" t="n">
         <v>100000</v>
@@ -16075,31 +16075,31 @@
         <v>7</v>
       </c>
       <c r="AA68" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB68" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC68" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD68" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE68" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF68" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG68" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH68" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI68" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ68" t="n">
         <v>0</v>
@@ -16111,13 +16111,13 @@
         <v>0</v>
       </c>
       <c r="AM68" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN68" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO68" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP68" t="n">
         <v>100000</v>
@@ -16305,31 +16305,31 @@
         <v>7</v>
       </c>
       <c r="AA69" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB69" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC69" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD69" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE69" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF69" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG69" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH69" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI69" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ69" t="n">
         <v>0</v>
@@ -16341,13 +16341,13 @@
         <v>0</v>
       </c>
       <c r="AM69" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN69" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO69" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP69" t="n">
         <v>100000</v>
@@ -16535,31 +16535,31 @@
         <v>7</v>
       </c>
       <c r="AA70" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB70" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC70" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD70" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE70" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF70" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG70" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH70" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI70" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ70" t="n">
         <v>0</v>
@@ -16571,13 +16571,13 @@
         <v>0</v>
       </c>
       <c r="AM70" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN70" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO70" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP70" t="n">
         <v>100000</v>
@@ -16765,31 +16765,31 @@
         <v>7</v>
       </c>
       <c r="AA71" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB71" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC71" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD71" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE71" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF71" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG71" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH71" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI71" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ71" t="n">
         <v>0</v>
@@ -16801,13 +16801,13 @@
         <v>0</v>
       </c>
       <c r="AM71" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN71" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO71" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP71" t="n">
         <v>100000</v>
@@ -16995,31 +16995,31 @@
         <v>7</v>
       </c>
       <c r="AA72" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB72" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC72" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD72" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE72" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF72" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG72" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH72" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI72" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ72" t="n">
         <v>0</v>
@@ -17031,13 +17031,13 @@
         <v>0</v>
       </c>
       <c r="AM72" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN72" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO72" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP72" t="n">
         <v>100000</v>
@@ -17225,31 +17225,31 @@
         <v>7</v>
       </c>
       <c r="AA73" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB73" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC73" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD73" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE73" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF73" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG73" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH73" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI73" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ73" t="n">
         <v>0</v>
@@ -17261,13 +17261,13 @@
         <v>0</v>
       </c>
       <c r="AM73" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN73" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO73" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP73" t="n">
         <v>100000</v>
@@ -17455,31 +17455,31 @@
         <v>7</v>
       </c>
       <c r="AA74" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB74" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC74" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD74" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE74" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF74" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG74" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH74" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI74" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ74" t="n">
         <v>0</v>
@@ -17491,13 +17491,13 @@
         <v>0</v>
       </c>
       <c r="AM74" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN74" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO74" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP74" t="n">
         <v>100000</v>
@@ -17685,31 +17685,31 @@
         <v>7</v>
       </c>
       <c r="AA75" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB75" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC75" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD75" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE75" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF75" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG75" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH75" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI75" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ75" t="n">
         <v>0</v>
@@ -17721,13 +17721,13 @@
         <v>0</v>
       </c>
       <c r="AM75" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN75" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO75" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP75" t="n">
         <v>100000</v>
@@ -17915,31 +17915,31 @@
         <v>7</v>
       </c>
       <c r="AA76" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB76" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC76" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD76" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE76" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF76" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG76" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH76" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI76" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ76" t="n">
         <v>0</v>
@@ -17951,13 +17951,13 @@
         <v>0</v>
       </c>
       <c r="AM76" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN76" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO76" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP76" t="n">
         <v>100000</v>
@@ -18145,31 +18145,31 @@
         <v>7</v>
       </c>
       <c r="AA77" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB77" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC77" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD77" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE77" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF77" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG77" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH77" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI77" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ77" t="n">
         <v>0</v>
@@ -18181,13 +18181,13 @@
         <v>0</v>
       </c>
       <c r="AM77" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN77" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO77" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP77" t="n">
         <v>100000</v>
@@ -18375,31 +18375,31 @@
         <v>7</v>
       </c>
       <c r="AA78" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB78" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC78" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD78" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE78" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF78" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG78" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH78" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI78" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ78" t="n">
         <v>0</v>
@@ -18411,13 +18411,13 @@
         <v>0</v>
       </c>
       <c r="AM78" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN78" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO78" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP78" t="n">
         <v>100000</v>
@@ -18605,31 +18605,31 @@
         <v>7</v>
       </c>
       <c r="AA79" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB79" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC79" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD79" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE79" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF79" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG79" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH79" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI79" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ79" t="n">
         <v>0</v>
@@ -18641,13 +18641,13 @@
         <v>0</v>
       </c>
       <c r="AM79" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN79" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO79" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP79" t="n">
         <v>100000</v>
@@ -18835,31 +18835,31 @@
         <v>7</v>
       </c>
       <c r="AA80" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB80" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC80" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD80" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE80" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF80" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG80" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH80" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI80" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ80" t="n">
         <v>0</v>
@@ -18871,13 +18871,13 @@
         <v>0</v>
       </c>
       <c r="AM80" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN80" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO80" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP80" t="n">
         <v>100000</v>
@@ -19065,31 +19065,31 @@
         <v>7</v>
       </c>
       <c r="AA81" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB81" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC81" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD81" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE81" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF81" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG81" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH81" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI81" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ81" t="n">
         <v>0</v>
@@ -19101,13 +19101,13 @@
         <v>0</v>
       </c>
       <c r="AM81" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN81" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO81" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP81" t="n">
         <v>100000</v>
@@ -19295,31 +19295,31 @@
         <v>7</v>
       </c>
       <c r="AA82" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB82" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC82" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD82" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE82" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF82" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG82" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH82" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI82" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ82" t="n">
         <v>0</v>
@@ -19331,13 +19331,13 @@
         <v>0</v>
       </c>
       <c r="AM82" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN82" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO82" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP82" t="n">
         <v>100000</v>
@@ -19525,31 +19525,31 @@
         <v>7</v>
       </c>
       <c r="AA83" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB83" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC83" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD83" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE83" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF83" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG83" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH83" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI83" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ83" t="n">
         <v>0</v>
@@ -19561,13 +19561,13 @@
         <v>0</v>
       </c>
       <c r="AM83" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN83" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO83" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP83" t="n">
         <v>100000</v>
@@ -19755,31 +19755,31 @@
         <v>7</v>
       </c>
       <c r="AA84" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB84" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC84" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD84" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE84" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF84" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG84" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH84" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI84" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ84" t="n">
         <v>0</v>
@@ -19791,13 +19791,13 @@
         <v>0</v>
       </c>
       <c r="AM84" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN84" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO84" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP84" t="n">
         <v>100000</v>
@@ -19985,31 +19985,31 @@
         <v>7</v>
       </c>
       <c r="AA85" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB85" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC85" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD85" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE85" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF85" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG85" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH85" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI85" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ85" t="n">
         <v>0</v>
@@ -20021,13 +20021,13 @@
         <v>0</v>
       </c>
       <c r="AM85" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN85" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO85" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP85" t="n">
         <v>100000</v>
@@ -20215,31 +20215,31 @@
         <v>7</v>
       </c>
       <c r="AA86" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB86" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC86" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD86" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE86" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF86" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG86" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH86" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI86" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ86" t="n">
         <v>0</v>
@@ -20251,13 +20251,13 @@
         <v>0</v>
       </c>
       <c r="AM86" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN86" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO86" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP86" t="n">
         <v>100000</v>
@@ -20445,31 +20445,31 @@
         <v>7</v>
       </c>
       <c r="AA87" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB87" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC87" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD87" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE87" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF87" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG87" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH87" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI87" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ87" t="n">
         <v>0</v>
@@ -20481,13 +20481,13 @@
         <v>0</v>
       </c>
       <c r="AM87" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN87" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO87" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP87" t="n">
         <v>100000</v>
@@ -20675,31 +20675,31 @@
         <v>7</v>
       </c>
       <c r="AA88" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB88" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC88" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD88" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE88" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF88" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG88" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH88" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI88" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ88" t="n">
         <v>0</v>
@@ -20711,13 +20711,13 @@
         <v>0</v>
       </c>
       <c r="AM88" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN88" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO88" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP88" t="n">
         <v>100000</v>
@@ -20905,31 +20905,31 @@
         <v>7</v>
       </c>
       <c r="AA89" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB89" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC89" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD89" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE89" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF89" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG89" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH89" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI89" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ89" t="n">
         <v>0</v>
@@ -20941,13 +20941,13 @@
         <v>0</v>
       </c>
       <c r="AM89" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN89" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO89" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP89" t="n">
         <v>100000</v>
@@ -21135,31 +21135,31 @@
         <v>7</v>
       </c>
       <c r="AA90" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AB90" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AC90" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AD90" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AE90" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AF90" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AG90" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AH90" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AI90" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AJ90" t="n">
         <v>0</v>
@@ -21171,13 +21171,13 @@
         <v>0</v>
       </c>
       <c r="AM90" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AN90" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AO90" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="AP90" t="n">
         <v>100000</v>
